--- a/medicine/Mort/Shinigami/Shinigami.xlsx
+++ b/medicine/Mort/Shinigami/Shinigami.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Shinigami (死神?, littéralement « kami (Dieu) de la mort ») est un terme utilisé au Japon originellement pour désigner les dieux psychopompes, c'est-à-dire les personnifications de la Mort, telles que la Faucheuse des traditions européennes. À la différence de celle-ci, le shinigami n'a pas qu'une représentation stéréotypée[Selon qui ?]. Il est mis en scène dans de nombreuses fictions japonaises.
 Dans la mesure où il peut y avoir plusieurs shinigami, on ne peut rapprocher leur rôle de celui, par exemple, des dieux Izanami ou Hadès.
@@ -512,7 +524,9 @@
           <t>Autres divinités japonaises de la Mort</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les divinités suivantes, bien qu'associées à la Mort, ne sont pas appelées shinigami :
 Enma (閻魔?), Enma-ō (閻魔王?) ou Enma-daiō (閻魔大王?) : importé du bouddhisme, son origine est le Seigneur de la Mort Yama de l'hindouisme. Il juge ceux qui vont au paradis (Nirvāna) ou en Enfer.
@@ -544,7 +558,9 @@
           <t>Personnages de fiction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Des personnages variés ont été nommés shinigami dans la culture populaire japonaise. Il n'y a donc pas une définition claire de leur rôle ou apparence, toutefois, leur travail est généralement de guider les âmes vers le royaume des morts.
 Quelques fictions dans lesquels on les retrouve :
@@ -555,7 +571,7 @@
 Darker Than Black : le héros, Hei, un contractant réputé maudit, est surnommé le « shinigami noir » ;
 Death Note : les shinigami de Death Note sont des créatures qui ont pour but de soutirer la vie aux humains pour se maintenir eux-mêmes en vie, le but de leurs existences est globalement de tuer des êtres humains. Chaque être humain tué par un shinigami lui apportera le temps de vie qu’il restait au départ à l'humain en question. Pour tuer, un shinigami utilise un Death Note, ou cahier de la mort, dans lequel il écrit le nom et les circonstances du décès de la personne choisie ;
 Dragon Ball : où les shinigami sont des employés de Enma, le chef du purgatoire, chargés de calmer les morts de l'enfer ou de guider les âmes jusqu'au paradis/enfer ou s'entraîner avec Maître Kaio selon leur spécialité ;
-Defense Devil : les shinigami sont en compétition avec le héros Mephisto Bart Kucabara pour récupérer la matière noire qui pollue l'âme des défunts[1] ;
+Defense Devil : les shinigami sont en compétition avec le héros Mephisto Bart Kucabara pour récupérer la matière noire qui pollue l'âme des défunts ;
 86: Eighty-Six : Shinei Nouzen, chef de l'escadron Spearhead, est appelé Le Faucheur, dans la version originale shinigami ;
 Fairy Tail : Shinigami est un des personnages ennemis (nom entier : Shinigami Eligoal), il appartient à la guilde d'Eisen Wald, une guilde clandestine. Le surnom de Shinigami est dû au fait qu'il ne prend que des missions basées sur l'assassinat ;
 Full Moon wo Sagashite : un shinigami est une âme ayant commis une grave erreur de son vivant (par exemple : se suicider). Sa mémoire est effacée et l'esprit est condamné à effectuer des bonnes actions pour racheter ses fautes avec la plus stricte interdiction de chercher à se souvenir de son passé ;
@@ -566,7 +582,7 @@
 Ippo ;
 Hellsing : le personnage Walter C. Dornez est surnommé le « dieu de la Mort » (shinigami en version originale) ;
 Inu-Yasha ;
-Inukami! , roman graphique où un "esprit-chien" (inugami) nommée Yoko et son maître combattent des esprits maléfiques[2] ;
+Inukami! , roman graphique où un "esprit-chien" (inugami) nommée Yoko et son maître combattent des esprits maléfiques ;
 Katekyo Hitman Reborn : durant la Guerre des représentants de l'arc-en-ciel, durant laquelle chaque Arcobaleno se bat avec une équipe afin de lever la malédiction qui l'emprisonne dans un corps de bébé, Flan prend les envoyés de la Vindice pour des shinigami ;
 Les descendants des ténèbres (Yami no matsuei) ;
 Nabari no Ou : Yoite est surnommé ainsi parce qu'il peut tuer une personne avec le kira (technique ninja qui se sert de la vie de l'utilisateur pour tuer ou sauver une personne en agissant sur le qì) ;
@@ -576,10 +592,10 @@
 Rin Hojo : personnage de la saison 5 de la série Initial D surnommé le shinigami ;
 Saint Seiya : Thanatos ;
 Shinigami (rakugo) ;
-Shinigami-kun , une série télévisée où le Faucheur invite les humains à le suivre en prononçant la phrase "Félicitations ! Je suis venu vous chercher"[3].
+Shinigami-kun , une série télévisée où le Faucheur invite les humains à le suivre en prononçant la phrase "Félicitations ! Je suis venu vous chercher".
 Shinigami-kun no Oshigoto ;
 Shinigami no Ballad : le personnage principal est un shinigami que seules les personnes au seuil de la mort peuvent voir. Elle recueille les âmes des êtres vivants ;
-Shigami no Seido (Traduction française : la mort avec précision), roman de Kotaro Isaka[4]
+Shigami no Seido (Traduction française : la mort avec précision), roman de Kotaro Isaka
 Soul Eater : le Maître Shinigami est le directeur de l'école des meisters Shibusen et Death the Kid le fils du Maître Shinigami ;
 Touhou Project : Komachi Onozuka est un shinigami qui a tendance à demander aux gens s'ils comptent commettre un suicide ;
 Yû Yû Hakusho ;
